--- a/docs/AzureNaming.xlsx
+++ b/docs/AzureNaming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\gh\vuept-branding\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E3EB81-ADC7-4BAB-B5D2-8F4D85AC7926}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265CA625-CBF3-4E69-8D6C-55C46E06F9CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="450" windowWidth="28800" windowHeight="14730" xr2:uid="{3389BAF9-C573-4E95-A0CD-EADCD4B7BF35}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="900" windowWidth="28800" windowHeight="14730" xr2:uid="{3389BAF9-C573-4E95-A0CD-EADCD4B7BF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Azure Naming" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <r>
       <t xml:space="preserve">across all resources is: </t>
@@ -572,6 +572,12 @@
   </si>
   <si>
     <t>Baseline for Suite</t>
+  </si>
+  <si>
+    <t>Allowable Length</t>
+  </si>
+  <si>
+    <t>1 - 90</t>
   </si>
 </sst>
 </file>
@@ -657,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -669,6 +675,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -986,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5413C409-059E-415B-BCC6-18F30C1FEB75}">
   <dimension ref="B2:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,21 +1079,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
@@ -1094,35 +1101,35 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
@@ -1144,8 +1151,11 @@
       <c r="H28" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>5</v>
       </c>
@@ -1169,8 +1179,11 @@
         <f>LEN(G29)</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>6</v>
       </c>
@@ -1194,8 +1207,9 @@
         <f>LEN(G30)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>16</v>
       </c>
@@ -1219,8 +1233,9 @@
         <f>LEN(G31)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1244,8 +1259,9 @@
         <f>LEN(G32)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>16</v>
       </c>
@@ -1269,64 +1285,65 @@
         <f>LEN(G33)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F48" s="5"/>
       <c r="H48" s="5"/>
     </row>

--- a/docs/AzureNaming.xlsx
+++ b/docs/AzureNaming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\gh\vuept-branding\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265CA625-CBF3-4E69-8D6C-55C46E06F9CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992EBB75-F524-42D1-B83E-7061F46E8DC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="900" windowWidth="28800" windowHeight="14730" xr2:uid="{3389BAF9-C573-4E95-A0CD-EADCD4B7BF35}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="14730" xr2:uid="{3389BAF9-C573-4E95-A0CD-EADCD4B7BF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Azure Naming" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <r>
       <t xml:space="preserve">across all resources is: </t>
@@ -568,9 +568,6 @@
     <t>Deployment Grouping/Scripting</t>
   </si>
   <si>
-    <t>Individual VP App Script</t>
-  </si>
-  <si>
     <t>Baseline for Suite</t>
   </si>
   <si>
@@ -578,6 +575,115 @@
   </si>
   <si>
     <t>1 - 90</t>
+  </si>
+  <si>
+    <t>Azure Kubernetes Service (AKS) Cluster</t>
+  </si>
+  <si>
+    <t>App Svc Baseline for Suite</t>
+  </si>
+  <si>
+    <t>Individual VP App Svc App Script</t>
+  </si>
+  <si>
+    <t>AKS Baseline for Suite</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-vp-aks</t>
+    </r>
+  </si>
+  <si>
+    <t>ms-o365-vp-aks</t>
+  </si>
+  <si>
+    <t>AKS Admin User</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-vp-admin</t>
+    </r>
+  </si>
+  <si>
+    <t>ms-o365-vp-admin</t>
   </si>
 </sst>
 </file>
@@ -994,12 +1100,12 @@
   <dimension ref="B2:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
@@ -1152,7 +1258,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -1163,7 +1269,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
         <v>31</v>
@@ -1180,7 +1286,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1191,7 +1297,7 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -1217,7 +1323,7 @@
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
@@ -1243,7 +1349,7 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
@@ -1269,7 +1375,7 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
@@ -1288,12 +1394,56 @@
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="5">
+        <f>LEN(E34)</f>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="5">
+        <f>LEN(G34)</f>
+        <v>14</v>
+      </c>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="5">
+        <f>LEN(E35)</f>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="5">
+        <f>LEN(G35)</f>
+        <v>16</v>
+      </c>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F36" s="5"/>

--- a/docs/AzureNaming.xlsx
+++ b/docs/AzureNaming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\gh\vuept-branding\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AFF379-9D1B-41B7-8FBA-52210D3D72F5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497A16DC-FF52-4BF0-A79F-FA76745B937C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="14730" xr2:uid="{3389BAF9-C573-4E95-A0CD-EADCD4B7BF35}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="2250" windowWidth="28800" windowHeight="14730" xr2:uid="{3389BAF9-C573-4E95-A0CD-EADCD4B7BF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Azure Naming" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <r>
       <t xml:space="preserve">across all resources is: </t>
@@ -593,8 +598,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-aks</t>
-    </r>
+      <t>-admin</t>
+    </r>
+  </si>
+  <si>
+    <t>vp-o365-app-plan</t>
+  </si>
+  <si>
+    <t>vp-o365-suite-app</t>
+  </si>
+  <si>
+    <t>vp-o365-admin-app</t>
+  </si>
+  <si>
+    <t>vp-o365-ol-app</t>
+  </si>
+  <si>
+    <t>vp-o365-admin</t>
   </si>
   <si>
     <r>
@@ -619,26 +639,71 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-admin</t>
-    </r>
-  </si>
-  <si>
-    <t>vp-o365-app-plan</t>
-  </si>
-  <si>
-    <t>vp-o365-suite-app</t>
-  </si>
-  <si>
-    <t>vp-o365-admin-app</t>
-  </si>
-  <si>
-    <t>vp-o365-ol-app</t>
-  </si>
-  <si>
-    <t>vp-o365-aks</t>
-  </si>
-  <si>
-    <t>vp-o365-admin</t>
+      <t>-cluster</t>
+    </r>
+  </si>
+  <si>
+    <t>vp-o365-cluster</t>
+  </si>
+  <si>
+    <t>Azure Container Registry (ACR)</t>
+  </si>
+  <si>
+    <r>
+      <t>vp</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[org]sname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>containers</t>
+    </r>
+  </si>
+  <si>
+    <t>vpo365containers</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>pattern: '^[a-zA-Z0-9]*$'</t>
+  </si>
+  <si>
+    <t>Azure/AKS Cluster Service Principle (csp)</t>
+  </si>
+  <si>
+    <r>
+      <t>vp-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[org-]sname-csp</t>
+    </r>
+  </si>
+  <si>
+    <t>vp-o365-csp</t>
   </si>
 </sst>
 </file>
@@ -1055,62 +1120,63 @@
   <dimension ref="B2:J52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.59765625" customWidth="1"/>
-    <col min="3" max="3" width="32.59765625" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" customWidth="1"/>
-    <col min="5" max="5" width="25.3984375" customWidth="1"/>
-    <col min="6" max="6" width="8.73046875" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="50" customWidth="1"/>
-    <col min="8" max="8" width="7.59765625" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1118,13 +1184,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
@@ -1132,13 +1198,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1146,21 +1212,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
@@ -1168,35 +1234,35 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1221,8 +1287,11 @@
       <c r="I29" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="J29" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>5</v>
       </c>
@@ -1250,7 +1319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>6</v>
       </c>
@@ -1268,7 +1337,7 @@
         <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="0"/>
@@ -1276,7 +1345,7 @@
       </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>13</v>
       </c>
@@ -1294,7 +1363,7 @@
         <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="0"/>
@@ -1302,7 +1371,7 @@
       </c>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>13</v>
       </c>
@@ -1320,7 +1389,7 @@
         <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="0"/>
@@ -1328,7 +1397,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>13</v>
       </c>
@@ -1346,7 +1415,7 @@
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="0"/>
@@ -1354,7 +1423,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -1365,22 +1434,22 @@
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>36</v>
       </c>
@@ -1391,14 +1460,14 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="0"/>
@@ -1406,67 +1475,114 @@
       </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="F37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="F38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" ref="F37:F38" si="2">LEN(E37)-2</f>
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" ref="H37:H38" si="3">LEN(G37)</f>
+        <v>16</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F52" s="5"/>
     </row>
   </sheetData>

--- a/docs/AzureNaming.xlsx
+++ b/docs/AzureNaming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\gh\vuept-branding\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497A16DC-FF52-4BF0-A79F-FA76745B937C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01209BD-6584-4C2C-9931-A0B7CA9B7D53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="2250" windowWidth="28800" windowHeight="14730" xr2:uid="{3389BAF9-C573-4E95-A0CD-EADCD4B7BF35}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="2700" windowWidth="28800" windowHeight="14730" xr2:uid="{3389BAF9-C573-4E95-A0CD-EADCD4B7BF35}"/>
   </bookViews>
   <sheets>
     <sheet name="Azure Naming" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
     <t>pattern: '^[a-zA-Z0-9]*$'</t>
   </si>
   <si>
-    <t>Azure/AKS Cluster Service Principle (csp)</t>
+    <t>vp-o365-adsp</t>
   </si>
   <si>
     <r>
@@ -699,11 +699,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[org-]sname-csp</t>
-    </r>
-  </si>
-  <si>
-    <t>vp-o365-csp</t>
+      <t>[org-]sname-adsp</t>
+    </r>
+  </si>
+  <si>
+    <t>Azure AD Service Principal (for Cluster)</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1120,7 @@
   <dimension ref="B2:J52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1519,14 +1519,14 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I38" s="7"/>
     </row>
